--- a/Backend/Test.xlsx
+++ b/Backend/Test.xlsx
@@ -341,70 +341,88 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>gaurav</v>
+        <v>UserName</v>
       </c>
       <c r="B1" t="str">
-        <v>check_1233</v>
+        <v>PassWord</v>
       </c>
       <c r="C1" t="str">
-        <v>tester</v>
+        <v>UserRole</v>
       </c>
       <c r="D1" t="str">
-        <v>test@test.com</v>
-      </c>
-      <c r="E1">
-        <v>9988273</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>gaurav</v>
-      </c>
-      <c r="B2" t="str">
-        <v>check_1233</v>
-      </c>
-      <c r="C2" t="str">
-        <v>tester</v>
-      </c>
-      <c r="D2" t="str">
-        <v>test@test.com</v>
-      </c>
-      <c r="E2">
-        <v>9988273</v>
-      </c>
-    </row>
+        <v>Email</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Mobile No</v>
+      </c>
+    </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" t="str">
-        <v>dev_1</v>
+        <v>shubham</v>
       </c>
       <c r="B3" t="str">
-        <v>check_1233</v>
+        <v>dev_123</v>
       </c>
       <c r="C3" t="str">
-        <v>tester</v>
+        <v>developers</v>
       </c>
       <c r="D3" t="str">
-        <v>test@test.com</v>
+        <v>shubham@blog.com</v>
       </c>
       <c r="E3">
-        <v>9988273</v>
+        <v>1122334455</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>shubham</v>
+        <v>gaurav</v>
       </c>
       <c r="B4" t="str">
-        <v>dev_123</v>
+        <v>check_1233</v>
       </c>
       <c r="C4" t="str">
-        <v>developers</v>
+        <v>tester</v>
       </c>
       <c r="D4" t="str">
-        <v>shubham@blog.com</v>
+        <v>test@test.com</v>
       </c>
       <c r="E4">
-        <v>1122334455</v>
+        <v>9988273</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>gaurav</v>
+      </c>
+      <c r="B5" t="str">
+        <v>check_1233</v>
+      </c>
+      <c r="C5" t="str">
+        <v>tester</v>
+      </c>
+      <c r="D5" t="str">
+        <v>test@test.com</v>
+      </c>
+      <c r="E5">
+        <v>9988273</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>dev_1</v>
+      </c>
+      <c r="B6" t="str">
+        <v>check_1233</v>
+      </c>
+      <c r="C6" t="str">
+        <v>tester</v>
+      </c>
+      <c r="D6" t="str">
+        <v>test@test.com</v>
+      </c>
+      <c r="E6">
+        <v>9988273</v>
       </c>
     </row>
   </sheetData>
@@ -418,53 +436,110 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Video Topic</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Video Link</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Book Name</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Book Link</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Tool Name</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Tool Link</v>
+      </c>
+    </row>
     <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>test video topic 3</v>
+      </c>
+      <c r="B3" t="str">
+        <v>https://youtu.be/aJOTlE1K90k?list=RDBzE1mX4Px0I</v>
+      </c>
+      <c r="C3" t="str">
+        <v>book_name 3</v>
+      </c>
+      <c r="D3" t="str">
+        <v>book_link 3</v>
+      </c>
+      <c r="E3" t="str">
+        <v>tool_name 3</v>
+      </c>
+      <c r="F3" t="str">
+        <v>tool_link 3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>test Video_topic 5</v>
+      </c>
+      <c r="B4" t="str">
+        <v>https://youtu.be/aJOTlE1K90k?list=RDBzE1mX4Px0I</v>
+      </c>
+      <c r="C4" t="str">
+        <v>book_name 5.4</v>
+      </c>
+      <c r="D4" t="str">
+        <v>book_link 5.4</v>
+      </c>
+      <c r="E4" t="str">
+        <v>tool_name 5</v>
+      </c>
+      <c r="F4" t="str">
+        <v>tool_link 5</v>
+      </c>
+    </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>test video topic 3</v>
+        <v>Salena Gomez</v>
       </c>
       <c r="B5" t="str">
         <v>https://youtu.be/aJOTlE1K90k?list=RDBzE1mX4Px0I</v>
       </c>
       <c r="C5" t="str">
-        <v>book_name 3</v>
+        <v>book_name 1</v>
       </c>
       <c r="D5" t="str">
-        <v>book_link 3</v>
+        <v>book_link 1</v>
       </c>
       <c r="E5" t="str">
-        <v>tool_name 3</v>
+        <v>tool_name 1</v>
       </c>
       <c r="F5" t="str">
-        <v>tool_link 3</v>
+        <v>tool_link 1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>test Video_topic 5</v>
+        <v>test video topic 2</v>
       </c>
       <c r="B6" t="str">
         <v>https://youtu.be/aJOTlE1K90k?list=RDBzE1mX4Px0I</v>
       </c>
       <c r="C6" t="str">
-        <v>book_name 5.4</v>
+        <v>book_name 2</v>
       </c>
       <c r="D6" t="str">
-        <v>book_link 5.4</v>
+        <v>book_link 2</v>
       </c>
       <c r="E6" t="str">
-        <v>tool_name 5</v>
+        <v>tool_name 2</v>
       </c>
       <c r="F6" t="str">
-        <v>tool_link 5</v>
+        <v>tool_link 2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Salena Gomez</v>
+        <v>test video topic 1</v>
       </c>
       <c r="B7" t="str">
         <v>https://youtu.be/aJOTlE1K90k?list=RDBzE1mX4Px0I</v>
@@ -484,42 +559,22 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>test video topic 2</v>
+        <v>Check Video Topic</v>
       </c>
       <c r="B8" t="str">
         <v>https://youtu.be/aJOTlE1K90k?list=RDBzE1mX4Px0I</v>
       </c>
       <c r="C8" t="str">
-        <v>book_name 2</v>
+        <v>book_name 4</v>
       </c>
       <c r="D8" t="str">
-        <v>book_link 2</v>
+        <v>book_link 4</v>
       </c>
       <c r="E8" t="str">
-        <v>tool_name 2</v>
+        <v>tool_name 4</v>
       </c>
       <c r="F8" t="str">
-        <v>tool_link 2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>test video topic 1</v>
-      </c>
-      <c r="B9" t="str">
-        <v>https://youtu.be/aJOTlE1K90k?list=RDBzE1mX4Px0I</v>
-      </c>
-      <c r="C9" t="str">
-        <v>book_name 1</v>
-      </c>
-      <c r="D9" t="str">
-        <v>book_link 1</v>
-      </c>
-      <c r="E9" t="str">
-        <v>tool_name 1</v>
-      </c>
-      <c r="F9" t="str">
-        <v>tool_link 1</v>
+        <v>tool_name 4</v>
       </c>
     </row>
   </sheetData>
@@ -533,61 +588,61 @@
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Blog Text</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Reference Link</v>
+      </c>
+    </row>
     <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10">
-      <c r="A10" t="str">
+    <row r="3">
+      <c r="A3" t="str">
+        <v>blog text one</v>
+      </c>
+      <c r="B3" t="str">
+        <v>reference link 1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>blog text two</v>
+      </c>
+      <c r="B4" t="str">
+        <v>reference link 2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>blog text three</v>
+      </c>
+      <c r="B5" t="str">
+        <v>reference link 3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Test blog text</v>
+      </c>
+      <c r="B6" t="str">
+        <v>reference text 1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Test blog text 2</v>
+      </c>
+      <c r="B7" t="str">
+        <v>reference text 2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
         <v>Test blog text #</v>
       </c>
-      <c r="B10" t="str">
+      <c r="B8" t="str">
         <v>reference text 6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>blog text one</v>
-      </c>
-      <c r="B11" t="str">
-        <v>reference link 1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>blog text two</v>
-      </c>
-      <c r="B12" t="str">
-        <v>reference link 2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>blog text three</v>
-      </c>
-      <c r="B13" t="str">
-        <v>reference link 3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>Test blog text</v>
-      </c>
-      <c r="B14" t="str">
-        <v>reference text 1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>Test blog text 2</v>
-      </c>
-      <c r="B15" t="str">
-        <v>reference text 2</v>
       </c>
     </row>
   </sheetData>
